--- a/난쏘공_Agile Plan.xlsx
+++ b/난쏘공_Agile Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D2\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin\cygwin64\home\befly\github\SitDown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C95AA706-84F7-4656-96C4-973587CEBECD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF73685-1A91-4351-94A4-FDADA2543105}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="7980" xr2:uid="{7EE4F0AE-A859-46CB-8D3C-0CE3C02AC714}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7EE4F0AE-A859-46CB-8D3C-0CE3C02AC714}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="24">
   <si>
     <t>Agile-Process  계획수정</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -64,10 +64,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>데이터베이스 구축 사전학습</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>POS SYS-웹페이지 연결</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -97,6 +93,38 @@
   </si>
   <si>
     <t>6주차</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>POS SYS. Table Tab 수정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>POS SYS. Menu Tab 수정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>POS SYS. Storage Tab 수정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>POS SYS. 코드 리팩토링</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 구축</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Documentation</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB-웹페이지 연결</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 구축</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -165,7 +193,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,6 +218,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -271,7 +335,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -281,37 +345,76 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="4" builtinId="10"/>
+    <cellStyle name="나쁨" xfId="2" builtinId="27"/>
+    <cellStyle name="메모" xfId="4" builtinId="10"/>
+    <cellStyle name="보통" xfId="3" builtinId="28"/>
+    <cellStyle name="좋음" xfId="1" builtinId="26"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -327,7 +430,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -623,21 +726,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1133671F-91B4-4D54-927D-E002D0C26D9B}">
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:AQ47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68:H68"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36.125" customWidth="1"/>
-    <col min="2" max="8" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>11</v>
+    <row r="1" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B1" s="2">
         <v>43584</v>
@@ -660,554 +764,559 @@
       <c r="H1" s="2">
         <v>43590</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="2">
+        <v>43591</v>
+      </c>
+      <c r="J1" s="2">
+        <v>43592</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D2" s="11"/>
+      <c r="E2" s="10"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
       <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
+        <v>43593</v>
+      </c>
+      <c r="C11" s="2">
+        <v>43594</v>
+      </c>
+      <c r="D11" s="2">
+        <v>43595</v>
+      </c>
+      <c r="E11" s="2">
+        <v>43596</v>
+      </c>
+      <c r="F11" s="2">
+        <v>43597</v>
+      </c>
+      <c r="G11" s="2">
+        <v>43598</v>
+      </c>
+      <c r="H11" s="2">
+        <v>43599</v>
+      </c>
+      <c r="I11" s="2">
+        <v>43600</v>
+      </c>
+      <c r="J11" s="2">
+        <v>43601</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="F12" s="10"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
-        <v>43591</v>
-      </c>
-      <c r="C13" s="2">
-        <v>43592</v>
-      </c>
-      <c r="D13" s="2">
-        <v>43593</v>
-      </c>
-      <c r="E13" s="2">
-        <v>43594</v>
-      </c>
-      <c r="F13" s="2">
-        <v>43595</v>
-      </c>
-      <c r="G13" s="2">
-        <v>43596</v>
-      </c>
-      <c r="H13" s="2">
-        <v>43597</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="B16" s="2">
+        <v>43602</v>
+      </c>
+      <c r="C16" s="2">
+        <v>43603</v>
+      </c>
+      <c r="D16" s="2">
+        <v>43604</v>
+      </c>
+      <c r="E16" s="2">
+        <v>43605</v>
+      </c>
+      <c r="F16" s="2">
+        <v>43606</v>
+      </c>
+      <c r="G16" s="2">
+        <v>43607</v>
+      </c>
+      <c r="H16" s="2">
+        <v>43608</v>
+      </c>
+      <c r="I16" s="2">
+        <v>43609</v>
+      </c>
+      <c r="J16" s="2">
+        <v>43610</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D17" s="11"/>
+      <c r="F17" s="10"/>
+      <c r="J17" s="10"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="2">
+        <v>43611</v>
+      </c>
+      <c r="C20" s="2">
+        <v>43612</v>
+      </c>
+      <c r="D20" s="2">
+        <v>43613</v>
+      </c>
+      <c r="E20" s="2">
+        <v>43614</v>
+      </c>
+      <c r="F20" s="2">
+        <v>43615</v>
+      </c>
+      <c r="G20" s="2">
+        <v>43616</v>
+      </c>
+      <c r="H20" s="2">
+        <v>43617</v>
+      </c>
+      <c r="I20" s="2">
+        <v>43618</v>
+      </c>
+      <c r="J20" s="2">
+        <v>43619</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="F21" s="10"/>
+      <c r="J21" s="10"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="2">
-        <v>43598</v>
-      </c>
-      <c r="C25" s="2">
-        <v>43599</v>
-      </c>
-      <c r="D25" s="2">
-        <v>43600</v>
-      </c>
-      <c r="E25" s="2">
-        <v>43601</v>
-      </c>
-      <c r="F25" s="2">
-        <v>43602</v>
-      </c>
-      <c r="G25" s="2">
-        <v>43603</v>
-      </c>
-      <c r="H25" s="2">
-        <v>43604</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="8"/>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="18"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="18"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="18"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="18"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="18"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="18"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="18"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="23"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A33" s="18"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A34" s="18"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" s="2">
-        <v>43605</v>
-      </c>
-      <c r="C37" s="2">
-        <v>43606</v>
-      </c>
-      <c r="D37" s="2">
-        <v>43607</v>
-      </c>
-      <c r="E37" s="2">
-        <v>43608</v>
-      </c>
-      <c r="F37" s="2">
-        <v>43609</v>
-      </c>
-      <c r="G37" s="2">
-        <v>43610</v>
-      </c>
-      <c r="H37" s="2">
-        <v>43611</v>
-      </c>
+      <c r="A37" s="16"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="3"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A40" s="18"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A41" s="18"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A42" s="18"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A43" s="18"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="8"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="23"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A45" s="18"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A46" s="18"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49" s="2">
-        <v>43612</v>
-      </c>
-      <c r="C49" s="2">
-        <v>43613</v>
-      </c>
-      <c r="D49" s="2">
-        <v>43614</v>
-      </c>
-      <c r="E49" s="2">
-        <v>43615</v>
-      </c>
-      <c r="F49" s="2">
-        <v>43616</v>
-      </c>
-      <c r="G49" s="2">
-        <v>43617</v>
-      </c>
-      <c r="H49" s="2">
-        <v>43618</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="3"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="8"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B61" s="2">
-        <v>43619</v>
-      </c>
-      <c r="C61" s="2">
-        <v>43620</v>
-      </c>
-      <c r="D61" s="2">
-        <v>43621</v>
-      </c>
-      <c r="E61" s="2">
-        <v>43622</v>
-      </c>
-      <c r="F61" s="2">
-        <v>43623</v>
-      </c>
-      <c r="G61" s="2">
-        <v>43624</v>
-      </c>
-      <c r="H61" s="2">
-        <v>43625</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" s="3"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B68" s="6"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="8"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
+      <c r="A47" s="18"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="B68:H68"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B32:H32"/>
-  </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>